--- a/Employee_Reports35/Pathmapriyan Muruguppilla Q0579.xlsx
+++ b/Employee_Reports35/Pathmapriyan Muruguppilla Q0579.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="73" customWidth="1" min="2" max="2"/>
+    <col width="59" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1503,11 +1503,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1601,11 +1601,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1638,11 +1638,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1687,11 +1687,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1736,11 +1736,11 @@
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
@@ -1786,11 +1786,11 @@
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>-150</v>
+        <v>-151</v>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>-173</v>
+        <v>-174</v>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -1884,11 +1884,11 @@
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>-88</v>
+        <v>-89</v>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -1921,11 +1921,11 @@
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>-88</v>
+        <v>-89</v>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
@@ -1941,40 +1941,28 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-003</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="inlineStr"/>
+      <c r="E32" s="3" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>22-Jun-2025</t>
+          <t>05-Jul-2025</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>22-Jun-2026</t>
+          <t>05-Jul-2027</t>
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>231</v>
+        <v>608</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1983,43 +1971,6 @@
         </is>
       </c>
       <c r="K32" s="3" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr">
-        <is>
-          <t>05-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>05-Jul-2027</t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>609</v>
-      </c>
-      <c r="I33" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K33" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Pathmapriyan Muruguppilla Q0579.xlsx
+++ b/Employee_Reports35/Pathmapriyan Muruguppilla Q0579.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1503,11 +1503,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1601,11 +1601,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1638,11 +1638,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1687,11 +1687,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1736,11 +1736,11 @@
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
@@ -1786,11 +1786,11 @@
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>-151</v>
+        <v>-152</v>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>-174</v>
+        <v>-175</v>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -1884,11 +1884,11 @@
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>-89</v>
+        <v>-90</v>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -1921,11 +1921,11 @@
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>-89</v>
+        <v>-90</v>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
@@ -1958,11 +1958,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
